--- a/templates/timesheet_template.xlsx
+++ b/templates/timesheet_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Dropbox\Personal\python\auto_timesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Dropbox\Personal\python\auto_timesheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FBEE7-5D5D-4BE4-898F-5718820E750A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E533156-8F44-4B2D-BD79-5F365C04E861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{040EAB7B-2414-4E70-9EA4-53E04FDAF18E}"/>
+    <workbookView xWindow="15375" yWindow="2625" windowWidth="12885" windowHeight="11505" xr2:uid="{040EAB7B-2414-4E70-9EA4-53E04FDAF18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,45 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>office use</t>
-  </si>
-  <si>
-    <t>week 1</t>
-  </si>
-  <si>
-    <t>week 2</t>
-  </si>
-  <si>
-    <t>week 3</t>
-  </si>
-  <si>
-    <t>week 4</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>u4</t>
   </si>
   <si>
     <t>timesheet</t>
@@ -452,7 +416,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,79 +428,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/templates/timesheet_template.xlsx
+++ b/templates/timesheet_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Dropbox\Personal\python\auto_timesheet\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\PycharmProjects\auto_timesheet\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E533156-8F44-4B2D-BD79-5F365C04E861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9DED0-9A4F-4F78-9236-B2EEDDF4FA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="2625" windowWidth="12885" windowHeight="11505" xr2:uid="{040EAB7B-2414-4E70-9EA4-53E04FDAF18E}"/>
+    <workbookView xWindow="14790" yWindow="2205" windowWidth="12885" windowHeight="11505" xr2:uid="{040EAB7B-2414-4E70-9EA4-53E04FDAF18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,43 +33,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>office use</t>
-  </si>
-  <si>
-    <t>timesheet</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cnr.architects</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>project</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>DESCRIPTION OF WORK</t>
+  </si>
+  <si>
+    <t>OFFICE USE</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>TIMESHEET</t>
+  </si>
+  <si>
+    <t>MONTH:</t>
+  </si>
+  <si>
+    <t>NAME:</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>.Architects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,9 +95,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,45 +421,64 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
